--- a/Desktop/github/gestion_inventario/reporte_ventas.xlsx
+++ b/Desktop/github/gestion_inventario/reporte_ventas.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,11 +469,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45748.4375</v>
+        <v>45777.89310185185</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Carlos Rodríguez</t>
+          <t>No registrado</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -483,237 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3200000.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45749.65625</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>María Fernández</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Pedro Jiménez</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>450000.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45750.45833333334</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Andrés Gómez</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Andrea López</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>250000.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45751.59722222222</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Laura Sánchez</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Pedro Jiménez</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>800000.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45755.82953703704</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Carlos Rodríguez</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Pedro Jiménez</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6800.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45755.83037037037</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Andres mejia (Cédula: 1007807780)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Pedro Jiménez</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>450000.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45755.83079861111</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>No registrado</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Pedro Jiménez</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1700.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>45759.87456018518</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>No registrado</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Andrea López</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3400.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45759.87482638889</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>No registrado</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Andrea López</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>450000.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>45759.87494212963</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>No registrado</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Andrea López</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>800000.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>45759.87505787037</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>No registrado</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Andrea López</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>500000.00</t>
+          <t>19250.00</t>
         </is>
       </c>
     </row>
